--- a/Offline 03/Data.xlsx
+++ b/Offline 03/Data.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\3-2\CSE 318 Artificial Intelligence Sessional\Offline 03\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E177142C-3449-4B02-97D8-7A9E70CE76D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{521B4FEC-A297-4628-9CC3-819943C123A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2085" yWindow="210" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-6105" yWindow="2895" windowWidth="21600" windowHeight="11505" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="hidden" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="34">
   <si>
     <t>Benchmark Data</t>
   </si>
@@ -82,13 +83,58 @@
   </si>
   <si>
     <t>After Random Ordering</t>
+  </si>
+  <si>
+    <t>kfu-93</t>
+  </si>
+  <si>
+    <t>tre-92</t>
+  </si>
+  <si>
+    <t>you-83</t>
+  </si>
+  <si>
+    <t>Largest-Degree + Kempe + Pairswap</t>
+  </si>
+  <si>
+    <t>Saturation Degree + Kempe + Pairswap</t>
+  </si>
+  <si>
+    <t>Largest Enrollment + Kempe + Pairswap</t>
+  </si>
+  <si>
+    <t>Random Ordering + Kempe + Pairswap</t>
+  </si>
+  <si>
+    <t>Benchmark</t>
+  </si>
+  <si>
+    <t>Largest-Degree</t>
+  </si>
+  <si>
+    <t>Kempe</t>
+  </si>
+  <si>
+    <t>Pairswap</t>
+  </si>
+  <si>
+    <t>Penalty [After]</t>
+  </si>
+  <si>
+    <t>Exponential</t>
+  </si>
+  <si>
+    <t>Linear</t>
+  </si>
+  <si>
+    <t>yor-83</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -110,8 +156,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Product Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
       <b/>
-      <sz val="14"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Product Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Product Sans"/>
       <family val="2"/>
@@ -137,7 +195,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -148,11 +206,23 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -436,236 +506,364 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16:H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.28515625" style="1" customWidth="1"/>
     <col min="2" max="2" width="15.7109375" style="1" customWidth="1"/>
-    <col min="3" max="5" width="32.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="26.28515625" style="1" customWidth="1"/>
-    <col min="7" max="8" width="32.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="26.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12" style="1" customWidth="1"/>
     <col min="9" max="9" width="32.85546875" style="2" customWidth="1"/>
     <col min="10" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="3" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="1">
+      <c r="C2" s="6"/>
+      <c r="D2" s="3">
         <v>32</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="3">
         <v>35</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="3">
         <v>20</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="3">
         <v>23</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H2" s="3">
         <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5" t="s">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="1">
+      <c r="C3" s="6"/>
+      <c r="D3" s="3">
         <v>3.74</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="3">
         <v>4.42</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="3">
         <v>12.96</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="3">
         <v>7.75</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3" s="3">
         <v>34.840000000000003</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="1">
+      <c r="C4" s="6"/>
+      <c r="D4" s="3">
         <v>32</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="3">
         <v>34</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="3">
         <v>20</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="3">
         <v>24</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4" s="3">
         <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="5" t="s">
+      <c r="A5" s="5"/>
+      <c r="B5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="3">
         <v>10.39</v>
       </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
     </row>
     <row r="6" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="1" t="s">
+      <c r="A6" s="5"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="3">
         <v>8.7899999999999991</v>
       </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
     </row>
     <row r="7" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="1" t="s">
+      <c r="A7" s="5"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
     </row>
     <row r="8" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="5"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3">
+        <v>20</v>
+      </c>
+      <c r="G8" s="3">
+        <v>22</v>
+      </c>
+      <c r="H8" s="3"/>
     </row>
     <row r="9" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="5" t="s">
+      <c r="A9" s="5"/>
+      <c r="B9" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3">
+        <v>46.55</v>
+      </c>
+      <c r="G9" s="3">
+        <v>16.010000000000002</v>
+      </c>
+      <c r="H9" s="3"/>
     </row>
     <row r="10" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="1" t="s">
+      <c r="A10" s="5"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3">
+        <v>25.87</v>
+      </c>
+      <c r="G10" s="3">
+        <v>13.83</v>
+      </c>
+      <c r="H10" s="3"/>
     </row>
     <row r="11" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="1" t="s">
+      <c r="A11" s="5"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3">
+        <v>24.94</v>
+      </c>
+      <c r="G11" s="3">
+        <v>13.81</v>
+      </c>
+      <c r="H11" s="3"/>
     </row>
     <row r="12" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="5"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="3">
+        <v>35</v>
+      </c>
+      <c r="E12" s="3">
+        <v>36</v>
+      </c>
+      <c r="F12" s="3">
+        <v>21</v>
+      </c>
+      <c r="G12" s="3">
+        <v>22</v>
+      </c>
+      <c r="H12" s="3">
+        <v>24</v>
+      </c>
     </row>
     <row r="13" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="5" t="s">
+      <c r="A13" s="5"/>
+      <c r="B13" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="3" t="s">
         <v>17</v>
       </c>
+      <c r="D13" s="3">
+        <v>10.67</v>
+      </c>
+      <c r="E13" s="3">
+        <v>13.78</v>
+      </c>
+      <c r="F13" s="3">
+        <v>54.52</v>
+      </c>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
     </row>
     <row r="14" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="1" t="s">
+      <c r="A14" s="5"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="D14" s="3">
+        <v>6.78</v>
+      </c>
+      <c r="E14" s="3">
+        <v>8.33</v>
+      </c>
+      <c r="F14" s="3">
+        <v>25.76</v>
+      </c>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
     </row>
     <row r="15" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="1" t="s">
+      <c r="A15" s="5"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="D15" s="3">
+        <v>6.76</v>
+      </c>
+      <c r="E15" s="3">
+        <v>8.32</v>
+      </c>
+      <c r="F15" s="3">
+        <v>23.75</v>
+      </c>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
     </row>
     <row r="16" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="5"/>
-    </row>
-    <row r="17" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="5" t="s">
+      <c r="C16" s="6"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="5"/>
+      <c r="B17" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="1" t="s">
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3">
+        <v>49.83</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="5"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="1" t="s">
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3">
+        <v>42.39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="5"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="3" t="s">
         <v>11</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3">
+        <v>41.99</v>
       </c>
     </row>
   </sheetData>
@@ -690,4 +888,891 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E50F8195-449E-43CD-BC70-E7F133758D5C}">
+  <dimension ref="A1:O36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.5703125" style="7" customWidth="1"/>
+    <col min="2" max="3" width="12.42578125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" style="7" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" style="7" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" style="7" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" style="7" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="7"/>
+    <col min="9" max="9" width="13.140625" style="7" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="7" customWidth="1"/>
+    <col min="11" max="11" width="10.7109375" style="7" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" style="7" customWidth="1"/>
+    <col min="13" max="13" width="17.7109375" style="7" customWidth="1"/>
+    <col min="14" max="14" width="10.28515625" style="7" customWidth="1"/>
+    <col min="15" max="15" width="11.42578125" style="7" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+    </row>
+    <row r="2" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="I2" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+    </row>
+    <row r="3" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+    </row>
+    <row r="4" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3">
+        <v>32</v>
+      </c>
+      <c r="C5" s="3">
+        <v>3.74</v>
+      </c>
+      <c r="D5" s="3">
+        <v>32</v>
+      </c>
+      <c r="E5" s="3">
+        <v>10.38</v>
+      </c>
+      <c r="F5" s="3">
+        <v>6.94</v>
+      </c>
+      <c r="G5" s="3">
+        <v>6.87</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J5" s="3">
+        <v>32</v>
+      </c>
+      <c r="K5" s="3">
+        <v>3.74</v>
+      </c>
+      <c r="L5" s="3">
+        <v>32</v>
+      </c>
+      <c r="M5" s="3">
+        <v>6.67</v>
+      </c>
+      <c r="N5" s="3">
+        <v>4.5199999999999996</v>
+      </c>
+      <c r="O5" s="3">
+        <v>4.5199999999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="3">
+        <v>35</v>
+      </c>
+      <c r="C6" s="3">
+        <v>4.42</v>
+      </c>
+      <c r="D6" s="3">
+        <v>35</v>
+      </c>
+      <c r="E6" s="3">
+        <v>11.6</v>
+      </c>
+      <c r="F6" s="3">
+        <v>9</v>
+      </c>
+      <c r="G6" s="3">
+        <v>8.9499999999999993</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J6" s="3">
+        <v>35</v>
+      </c>
+      <c r="K6" s="3">
+        <v>4.42</v>
+      </c>
+      <c r="L6" s="3">
+        <v>35</v>
+      </c>
+      <c r="M6" s="3">
+        <v>7.49</v>
+      </c>
+      <c r="N6" s="3">
+        <v>5.47</v>
+      </c>
+      <c r="O6" s="3">
+        <v>5.46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="3">
+        <v>20</v>
+      </c>
+      <c r="C7" s="3">
+        <v>12.96</v>
+      </c>
+      <c r="D7" s="3">
+        <v>20</v>
+      </c>
+      <c r="E7" s="3">
+        <v>46.5</v>
+      </c>
+      <c r="F7" s="3">
+        <v>35.840000000000003</v>
+      </c>
+      <c r="G7" s="3">
+        <v>26.54</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J7" s="3">
+        <v>20</v>
+      </c>
+      <c r="K7" s="3">
+        <v>12.96</v>
+      </c>
+      <c r="L7" s="3">
+        <v>20</v>
+      </c>
+      <c r="M7" s="3">
+        <v>28.67</v>
+      </c>
+      <c r="N7" s="3">
+        <v>15.48</v>
+      </c>
+      <c r="O7" s="3">
+        <v>15.48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="3">
+        <v>23</v>
+      </c>
+      <c r="C8" s="3">
+        <v>7.75</v>
+      </c>
+      <c r="D8" s="3">
+        <v>23</v>
+      </c>
+      <c r="E8" s="3">
+        <v>10.210000000000001</v>
+      </c>
+      <c r="F8" s="3">
+        <v>8.73</v>
+      </c>
+      <c r="G8" s="3">
+        <v>8.7100000000000009</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" s="3">
+        <v>23</v>
+      </c>
+      <c r="K8" s="3">
+        <v>7.75</v>
+      </c>
+      <c r="L8" s="3">
+        <v>24</v>
+      </c>
+      <c r="M8" s="3">
+        <v>10.119999999999999</v>
+      </c>
+      <c r="N8" s="3">
+        <v>8.9700000000000006</v>
+      </c>
+      <c r="O8" s="3">
+        <v>8.33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="3">
+        <v>21</v>
+      </c>
+      <c r="C9" s="3">
+        <v>34.840000000000003</v>
+      </c>
+      <c r="D9" s="3">
+        <v>23</v>
+      </c>
+      <c r="E9" s="3">
+        <v>65.53</v>
+      </c>
+      <c r="F9" s="3">
+        <v>49.15</v>
+      </c>
+      <c r="G9" s="3">
+        <v>48.56</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" s="3">
+        <v>21</v>
+      </c>
+      <c r="K9" s="3">
+        <v>34.840000000000003</v>
+      </c>
+      <c r="L9" s="3">
+        <v>23</v>
+      </c>
+      <c r="M9" s="3">
+        <v>4.51</v>
+      </c>
+      <c r="N9" s="3">
+        <v>30.9</v>
+      </c>
+      <c r="O9" s="3">
+        <v>30.9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+    </row>
+    <row r="12" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+    </row>
+    <row r="13" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="3">
+        <v>32</v>
+      </c>
+      <c r="C14" s="3">
+        <v>3.74</v>
+      </c>
+      <c r="D14" s="3">
+        <v>29</v>
+      </c>
+      <c r="E14" s="3">
+        <v>6.66</v>
+      </c>
+      <c r="F14" s="3">
+        <v>5.54</v>
+      </c>
+      <c r="G14" s="3">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="3">
+        <v>35</v>
+      </c>
+      <c r="C15" s="3">
+        <v>4.42</v>
+      </c>
+      <c r="D15" s="3">
+        <v>31</v>
+      </c>
+      <c r="E15" s="3">
+        <v>8.1199999999999992</v>
+      </c>
+      <c r="F15" s="3">
+        <v>6.57</v>
+      </c>
+      <c r="G15" s="3">
+        <v>6.54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="3">
+        <v>20</v>
+      </c>
+      <c r="C16" s="3">
+        <v>12.96</v>
+      </c>
+      <c r="D16" s="3">
+        <v>20</v>
+      </c>
+      <c r="E16" s="3">
+        <v>46.55</v>
+      </c>
+      <c r="F16" s="3">
+        <v>25.87</v>
+      </c>
+      <c r="G16" s="3">
+        <v>24.94</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="3">
+        <v>23</v>
+      </c>
+      <c r="C17" s="3">
+        <v>7.75</v>
+      </c>
+      <c r="D17" s="3">
+        <v>22</v>
+      </c>
+      <c r="E17" s="3">
+        <v>16.010000000000002</v>
+      </c>
+      <c r="F17" s="3">
+        <v>13.83</v>
+      </c>
+      <c r="G17" s="3">
+        <v>13.81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="3">
+        <v>21</v>
+      </c>
+      <c r="C18" s="3">
+        <v>34.840000000000003</v>
+      </c>
+      <c r="D18" s="3">
+        <v>21</v>
+      </c>
+      <c r="E18" s="3">
+        <v>60.82</v>
+      </c>
+      <c r="F18" s="3">
+        <v>58.07</v>
+      </c>
+      <c r="G18" s="3">
+        <v>58.07</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A20" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+    </row>
+    <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A21" s="6"/>
+      <c r="B21" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+    </row>
+    <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="3">
+        <v>32</v>
+      </c>
+      <c r="C23" s="3">
+        <v>3.74</v>
+      </c>
+      <c r="D23" s="3">
+        <v>35</v>
+      </c>
+      <c r="E23" s="3">
+        <v>10.67</v>
+      </c>
+      <c r="F23" s="3">
+        <v>6.78</v>
+      </c>
+      <c r="G23" s="3">
+        <v>6.76</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24" s="3">
+        <v>35</v>
+      </c>
+      <c r="C24" s="3">
+        <v>4.42</v>
+      </c>
+      <c r="D24" s="3">
+        <v>36</v>
+      </c>
+      <c r="E24" s="3">
+        <v>13.78</v>
+      </c>
+      <c r="F24" s="3">
+        <v>8.33</v>
+      </c>
+      <c r="G24" s="3">
+        <v>8.32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25" s="3">
+        <v>20</v>
+      </c>
+      <c r="C25" s="3">
+        <v>12.96</v>
+      </c>
+      <c r="D25" s="3">
+        <v>21</v>
+      </c>
+      <c r="E25" s="3">
+        <v>54.52</v>
+      </c>
+      <c r="F25" s="3">
+        <v>25.76</v>
+      </c>
+      <c r="G25" s="3">
+        <v>23.75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" s="3">
+        <v>23</v>
+      </c>
+      <c r="C26" s="3">
+        <v>7.75</v>
+      </c>
+      <c r="D26" s="3">
+        <v>22</v>
+      </c>
+      <c r="E26" s="3">
+        <v>16.41</v>
+      </c>
+      <c r="F26" s="3">
+        <v>13.85</v>
+      </c>
+      <c r="G26" s="3">
+        <v>13.68</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" s="3">
+        <v>21</v>
+      </c>
+      <c r="C27" s="3">
+        <v>34.840000000000003</v>
+      </c>
+      <c r="D27" s="3">
+        <v>23</v>
+      </c>
+      <c r="E27" s="3">
+        <v>40.69</v>
+      </c>
+      <c r="F27" s="3">
+        <v>31.55</v>
+      </c>
+      <c r="G27" s="3">
+        <v>31.24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A29" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+    </row>
+    <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A30" s="6"/>
+      <c r="B30" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+    </row>
+    <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A31" s="6"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B32" s="3">
+        <v>32</v>
+      </c>
+      <c r="C32" s="3">
+        <v>3.74</v>
+      </c>
+      <c r="D32" s="3">
+        <v>45</v>
+      </c>
+      <c r="E32" s="3">
+        <v>4.7699999999999996</v>
+      </c>
+      <c r="F32" s="3">
+        <v>3.83</v>
+      </c>
+      <c r="G32" s="3">
+        <v>3.79</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B33" s="3">
+        <v>35</v>
+      </c>
+      <c r="C33" s="3">
+        <v>4.42</v>
+      </c>
+      <c r="D33" s="3">
+        <v>46</v>
+      </c>
+      <c r="E33" s="3">
+        <v>6.29</v>
+      </c>
+      <c r="F33" s="3">
+        <v>4.26</v>
+      </c>
+      <c r="G33" s="3">
+        <v>4.24</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B34" s="3">
+        <v>20</v>
+      </c>
+      <c r="C34" s="3">
+        <v>12.96</v>
+      </c>
+      <c r="D34" s="3">
+        <v>26</v>
+      </c>
+      <c r="E34" s="3">
+        <v>20.59</v>
+      </c>
+      <c r="F34" s="3">
+        <v>14.1</v>
+      </c>
+      <c r="G34" s="3">
+        <v>12.86</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B35" s="3">
+        <v>23</v>
+      </c>
+      <c r="C35" s="3">
+        <v>7.75</v>
+      </c>
+      <c r="D35" s="3">
+        <v>28</v>
+      </c>
+      <c r="E35" s="3">
+        <v>8.4600000000000009</v>
+      </c>
+      <c r="F35" s="3">
+        <v>7.28</v>
+      </c>
+      <c r="G35" s="3">
+        <v>7.06</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B36" s="3">
+        <v>21</v>
+      </c>
+      <c r="C36" s="3">
+        <v>34.840000000000003</v>
+      </c>
+      <c r="D36" s="3">
+        <v>28</v>
+      </c>
+      <c r="E36" s="3">
+        <v>49.83</v>
+      </c>
+      <c r="F36" s="3">
+        <v>42.39</v>
+      </c>
+      <c r="G36" s="3">
+        <v>41.99</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="37">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="I1:O1"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:G29"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:G20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:G3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Offline 03/Data.xlsx
+++ b/Offline 03/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\3-2\CSE 318 Artificial Intelligence Sessional\Offline 03\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{521B4FEC-A297-4628-9CC3-819943C123A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65D25AF0-0395-4F5B-8856-434580A70B89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-6105" yWindow="2895" windowWidth="21600" windowHeight="11505" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="33">
   <si>
     <t>Benchmark Data</t>
   </si>
@@ -89,9 +89,6 @@
   </si>
   <si>
     <t>tre-92</t>
-  </si>
-  <si>
-    <t>you-83</t>
   </si>
   <si>
     <t>Largest-Degree + Kempe + Pairswap</t>
@@ -894,8 +891,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E50F8195-449E-43CD-BC70-E7F133758D5C}">
   <dimension ref="A1:O36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29:G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -919,7 +916,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -929,7 +926,7 @@
       <c r="G1" s="8"/>
       <c r="H1" s="9"/>
       <c r="I1" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J1" s="8"/>
       <c r="K1" s="8"/>
@@ -940,27 +937,27 @@
     </row>
     <row r="2" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
       <c r="I2" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J2" s="6" t="s">
         <v>6</v>
       </c>
       <c r="K2" s="6"/>
       <c r="L2" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M2" s="6"/>
       <c r="N2" s="6"/>
@@ -978,7 +975,7 @@
         <v>7</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
@@ -993,7 +990,7 @@
         <v>7</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N3" s="6"/>
       <c r="O3" s="6"/>
@@ -1004,26 +1001,26 @@
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="E4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>29</v>
       </c>
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
       <c r="L4" s="6"/>
       <c r="M4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="O4" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -1204,7 +1201,7 @@
     </row>
     <row r="9" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B9" s="3">
         <v>21</v>
@@ -1225,7 +1222,7 @@
         <v>48.56</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="J9" s="3">
         <v>21</v>
@@ -1248,14 +1245,14 @@
     </row>
     <row r="11" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
@@ -1273,7 +1270,7 @@
         <v>7</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
@@ -1287,10 +1284,10 @@
         <v>13</v>
       </c>
       <c r="F13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
@@ -1387,7 +1384,7 @@
     </row>
     <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B18" s="3">
         <v>21</v>
@@ -1410,14 +1407,14 @@
     </row>
     <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
@@ -1435,7 +1432,7 @@
         <v>7</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
@@ -1449,10 +1446,10 @@
         <v>14</v>
       </c>
       <c r="F22" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G22" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
@@ -1549,7 +1546,7 @@
     </row>
     <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B27" s="3">
         <v>21</v>
@@ -1572,14 +1569,14 @@
     </row>
     <row r="29" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C29" s="6"/>
       <c r="D29" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
@@ -1597,7 +1594,7 @@
         <v>7</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
@@ -1611,10 +1608,10 @@
         <v>15</v>
       </c>
       <c r="F31" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G31" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
@@ -1711,7 +1708,7 @@
     </row>
     <row r="36" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B36" s="3">
         <v>21</v>
